--- a/账目/账目.xlsx
+++ b/账目/账目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61A96DB5-4069-4882-A0D0-6DFA3BA02A31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F659B389-9B52-46DE-AEF7-99C17E9386CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>密室项目账单</t>
   </si>
@@ -92,6 +92,33 @@
   </si>
   <si>
     <t>不记得了</t>
+  </si>
+  <si>
+    <t>tf卡</t>
+  </si>
+  <si>
+    <t>话筒耳机</t>
+  </si>
+  <si>
+    <t>开关</t>
+  </si>
+  <si>
+    <t>第三批材料</t>
+  </si>
+  <si>
+    <t>arduino拓展板</t>
+  </si>
+  <si>
+    <t>电线</t>
+  </si>
+  <si>
+    <t>Jaycar 盒子</t>
+  </si>
+  <si>
+    <t>Element14</t>
+  </si>
+  <si>
+    <t>Kmart</t>
   </si>
 </sst>
 </file>
@@ -251,24 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,6 +292,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -567,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H5" sqref="H5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,28 +606,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -611,281 +638,493 @@
         <v>2</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <f>SUM(E4:E21)</f>
-        <v>6902.4400000000005</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9">
+        <f>SUM(E4:E33)</f>
+        <v>8266.4900000000016</v>
+      </c>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>8.2799999999999994</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
         <v>2568.34</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="4">
         <v>8.2799999999999994</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
         <v>178</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
         <f>15000-H3</f>
-        <v>8097.5599999999995</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>6733.5099999999984</v>
+      </c>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>8.2899999999999991</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
         <v>119.38</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="4">
         <v>8.2899999999999991</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10">
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
         <v>159.80000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
+      <c r="D8" s="4"/>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="4">
         <v>9.2100000000000009</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+      <c r="D9" s="4"/>
+      <c r="E9" s="3">
         <f>24.55*5</f>
         <v>122.75</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="4">
         <v>9.2100000000000009</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
+      <c r="D10" s="4"/>
+      <c r="E10" s="3">
         <f>22.62*5</f>
         <v>113.10000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="4">
         <v>9.26</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10">
+      <c r="D11" s="4"/>
+      <c r="E11" s="3">
         <f>29.95*5</f>
         <v>149.75</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="4">
         <v>9.27</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10">
+      <c r="D12" s="4"/>
+      <c r="E12" s="3">
         <f>21.1*5</f>
         <v>105.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="4">
         <v>9.27</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
+      <c r="D13" s="4"/>
+      <c r="E13" s="3">
         <f>83.87*5</f>
         <v>419.35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>9.27</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10">
+      <c r="D14" s="4"/>
+      <c r="E14" s="3">
         <v>739.97</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="4">
         <v>9.27</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10">
+      <c r="D15" s="4"/>
+      <c r="E15" s="3">
         <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="4">
         <v>9.27</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10">
+      <c r="D16" s="4"/>
+      <c r="E16" s="3">
         <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="4">
         <v>9.2899999999999991</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10">
+      <c r="D17" s="4"/>
+      <c r="E17" s="3">
         <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="4">
         <v>10.02</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10">
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
         <f>74*5</f>
         <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="4">
         <v>10.01</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10">
+      <c r="D19" s="4"/>
+      <c r="E19" s="3">
         <f>39.5*5</f>
         <v>197.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="4">
         <v>10.4</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10">
+      <c r="D20" s="4"/>
+      <c r="E20" s="3">
         <f>66*5</f>
         <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10">
+      <c r="D21" s="4"/>
+      <c r="E21" s="3">
         <f>31*5</f>
         <v>155</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>10.09</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>10.09</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>10.09</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>10.11</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3">
+        <v>313.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>10.11</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>10.17</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3">
+        <f>33.05*5</f>
+        <v>165.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>10.11</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3">
+        <f>31.57*5</f>
+        <v>157.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3">
+        <f>13.35*5</f>
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3">
+        <f>35*5</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>10.16</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3">
+        <f>10*5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="67">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A20:B20"/>
@@ -902,33 +1141,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/账目/账目.xlsx
+++ b/账目/账目.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F659B389-9B52-46DE-AEF7-99C17E9386CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9108E-D879-8B45-9A77-2AB45F10941F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>密室项目账单</t>
   </si>
@@ -119,6 +124,21 @@
   </si>
   <si>
     <t>Kmart</t>
+  </si>
+  <si>
+    <t>pcb</t>
+  </si>
+  <si>
+    <t>toto</t>
+  </si>
+  <si>
+    <t>淘宝材料</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>计时</t>
   </si>
 </sst>
 </file>
@@ -273,7 +293,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,13 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
@@ -311,12 +325,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,553 +617,760 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9">
-        <f>SUM(E4:E33)</f>
-        <v>8266.4900000000016</v>
-      </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <f>SUM(F4:F47)</f>
+        <v>10155.490000000002</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
         <v>8.2799999999999994</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3">
+      <c r="E4" s="5"/>
+      <c r="F4" s="3">
         <v>2568.34</v>
       </c>
-      <c r="F4" s="12"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
         <v>8.2799999999999994</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
+      <c r="E5" s="5"/>
+      <c r="F5" s="3">
         <v>178</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10">
-        <f>15000-H3</f>
-        <v>6733.5099999999984</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
+        <f>15000-I3</f>
+        <v>4844.5099999999984</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
         <v>8.2899999999999991</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3">
+      <c r="E6" s="5"/>
+      <c r="F6" s="3">
         <v>119.38</v>
       </c>
-      <c r="F6" s="12"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
         <v>8.2899999999999991</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3">
+      <c r="E7" s="5"/>
+      <c r="F7" s="3">
         <v>159.80000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3">
+      <c r="E8" s="5"/>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
         <v>9.2100000000000009</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
+      <c r="E9" s="5"/>
+      <c r="F9" s="3">
         <f>24.55*5</f>
         <v>122.75</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
         <v>9.2100000000000009</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3">
+      <c r="E10" s="5"/>
+      <c r="F10" s="3">
         <f>22.62*5</f>
         <v>113.10000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
         <v>9.26</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3">
+      <c r="E11" s="5"/>
+      <c r="F11" s="3">
         <f>29.95*5</f>
         <v>149.75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
         <v>9.27</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3">
+      <c r="E12" s="5"/>
+      <c r="F12" s="3">
         <f>21.1*5</f>
         <v>105.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
         <v>9.27</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3">
+      <c r="E13" s="5"/>
+      <c r="F13" s="3">
         <f>83.87*5</f>
         <v>419.35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
         <v>9.27</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3">
+      <c r="E14" s="5"/>
+      <c r="F14" s="3">
         <v>739.97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
         <v>9.27</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3">
+      <c r="E15" s="5"/>
+      <c r="F15" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
         <v>9.27</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3">
+      <c r="E16" s="5"/>
+      <c r="F16" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
         <v>9.2899999999999991</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3">
+      <c r="E17" s="5"/>
+      <c r="F17" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
         <v>10.02</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3">
+      <c r="E18" s="5"/>
+      <c r="F18" s="3">
         <f>74*5</f>
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
         <v>10.01</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3">
+      <c r="E19" s="5"/>
+      <c r="F19" s="3">
         <f>39.5*5</f>
         <v>197.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
         <v>10.4</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3">
+      <c r="E20" s="5"/>
+      <c r="F20" s="3">
         <f>66*5</f>
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3">
+      <c r="E21" s="5"/>
+      <c r="F21" s="3">
         <f>31*5</f>
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
         <v>10.09</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3">
+      <c r="E22" s="5"/>
+      <c r="F22" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
         <v>10.09</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3">
+      <c r="E23" s="5"/>
+      <c r="F23" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="5">
         <v>10.09</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3">
+      <c r="E24" s="5"/>
+      <c r="F24" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
         <v>10.11</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3">
+      <c r="E25" s="5"/>
+      <c r="F25" s="3">
         <v>313.2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
         <v>10.11</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3">
+      <c r="E26" s="5"/>
+      <c r="F26" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
         <v>10.119999999999999</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3">
+      <c r="E27" s="5"/>
+      <c r="F27" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
         <v>10.17</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3">
+      <c r="E28" s="5"/>
+      <c r="F28" s="3">
         <f>33.05*5</f>
         <v>165.25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
         <v>10.11</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3">
+      <c r="E29" s="5"/>
+      <c r="F29" s="3">
         <f>31.57*5</f>
         <v>157.85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
         <v>10.15</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3">
+      <c r="E30" s="5"/>
+      <c r="F30" s="3">
         <f>13.35*5</f>
         <v>66.75</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
         <v>10.119999999999999</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3">
+      <c r="E31" s="5"/>
+      <c r="F31" s="3">
         <f>35*5</f>
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
         <v>10.16</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3">
+      <c r="E32" s="5"/>
+      <c r="F32" s="3">
         <f>10*5</f>
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="5">
         <v>10.15</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3">
+      <c r="E33" s="5"/>
+      <c r="F33" s="3">
         <v>181</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
+  <mergeCells count="95">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/账目/账目.xlsx
+++ b/账目/账目.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9108E-D879-8B45-9A77-2AB45F10941F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{23966825-9B8D-4928-9799-E40E8CF94BB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>密室项目账单</t>
   </si>
@@ -139,13 +134,28 @@
   </si>
   <si>
     <t>计时</t>
+  </si>
+  <si>
+    <t>杜邦线</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>mp5</t>
+  </si>
+  <si>
+    <t>还没付的</t>
+  </si>
+  <si>
+    <t>未支付</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +184,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +213,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -287,13 +310,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +332,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
@@ -328,14 +361,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -617,693 +648,830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
-        <f>SUM(F4:F47)</f>
-        <v>10155.490000000002</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
+        <f>SUM(F4:F39)</f>
+        <v>9130.7400000000016</v>
+      </c>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
         <v>8.2799999999999994</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="3">
         <v>2568.34</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
+      <c r="G4" s="13"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
         <v>8.2799999999999994</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="3">
         <v>178</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
         <f>15000-I3</f>
-        <v>4844.5099999999984</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
+        <v>5869.2599999999984</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
         <v>8.2899999999999991</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="3">
         <v>119.38</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
         <v>8.2899999999999991</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="3">
         <v>159.80000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
         <v>9.2100000000000009</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="3">
         <f>24.55*5</f>
         <v>122.75</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
         <v>9.2100000000000009</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="3">
         <f>22.62*5</f>
         <v>113.10000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
         <v>9.26</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="3">
         <f>29.95*5</f>
         <v>149.75</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
         <v>9.27</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="3">
         <f>21.1*5</f>
         <v>105.5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
         <v>9.27</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="3">
         <f>83.87*5</f>
         <v>419.35</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="5">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
         <v>9.27</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="3">
         <v>739.97</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
         <v>9.27</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="5">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
         <v>9.27</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
         <v>9.2899999999999991</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
         <v>10.02</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="3">
         <f>74*5</f>
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
         <v>10.01</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="3">
         <f>39.5*5</f>
         <v>197.5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
         <v>10.4</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="3">
         <f>66*5</f>
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="3">
         <f>31*5</f>
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
         <v>10.09</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
         <v>10.09</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
         <v>10.09</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
         <v>10.11</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="3">
         <v>313.2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
         <v>10.11</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
         <v>10.119999999999999</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
         <v>10.17</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="3">
         <f>33.05*5</f>
         <v>165.25</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
         <v>10.11</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="3">
         <f>31.57*5</f>
         <v>157.85</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
         <v>10.15</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="3">
         <f>13.35*5</f>
         <v>66.75</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
         <v>10.119999999999999</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="3">
         <f>35*5</f>
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
         <v>10.16</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="3">
         <f>10*5</f>
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
         <v>10.15</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5">
-        <v>10.28</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5">
-        <v>10.28</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5">
-        <v>10.28</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="4">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="5">
-        <v>10.28</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="5">
-        <v>10.28</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="5">
-        <v>10.28</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="5">
-        <v>10.28</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="5">
-        <v>10.28</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
+        <v>10.17</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="5">
+        <f>33.05*5</f>
+        <v>165.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="5">
+        <f>5*24</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="6">
         <v>10.28</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="6">
+        <v>10.28</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6">
+        <v>10.28</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="6">
+        <v>10.28</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="6">
+        <v>10.28</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="6">
+        <v>10.28</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="6">
+        <v>10.28</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="6">
+        <v>10.28</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="6">
+        <v>10.28</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="4">
+      <c r="E50" s="6"/>
+      <c r="F50" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="4"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5">
+        <f>SUM(F42:F50)</f>
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
+  <mergeCells count="108">
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B40:F41"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D21:E21"/>
@@ -1320,57 +1488,34 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/账目/账目.xlsx
+++ b/账目/账目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9108E-D879-8B45-9A77-2AB45F10941F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84FF514-7766-2340-A14A-5D72D72DF7EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>密室项目账单</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>计时</t>
+  </si>
+  <si>
+    <t>焊接工具</t>
+  </si>
+  <si>
+    <t>电烙铁</t>
+  </si>
+  <si>
+    <t>xh2.54 wire</t>
   </si>
 </sst>
 </file>
@@ -619,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -669,8 +678,8 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7">
-        <f>SUM(F4:F47)</f>
-        <v>10155.490000000002</v>
+        <f>SUM(F4:F61)</f>
+        <v>10777.490000000002</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -709,7 +718,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8">
         <f>15000-I3</f>
-        <v>4844.5099999999984</v>
+        <v>4222.5099999999984</v>
       </c>
       <c r="J5" s="8"/>
     </row>
@@ -1240,39 +1249,84 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="5">
+        <v>10.28</v>
+      </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4">
+        <v>154</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="5">
+        <v>11.1</v>
+      </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4">
+        <v>214</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="5">
+        <v>11.1</v>
+      </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4">
+        <v>188</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="5">
+        <v>11.1</v>
+      </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
+      <c r="A47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="5">
+        <v>11.1</v>
+      </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="4">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="95">
